--- a/demo_data.xlsx
+++ b/demo_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\report_dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68530C7F-0A24-4BA5-9AA5-812710DF1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92815B13-EF22-44F0-8DDB-D70C6686DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="365">
   <si>
     <t>Tanggal</t>
   </si>
@@ -1115,12 +1115,6 @@
   </si>
   <si>
     <t>2023-10-09 16:10:21</t>
-  </si>
-  <si>
-    <t>2023-09-31</t>
-  </si>
-  <si>
-    <t>2023-09-31 13:39:39</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1183,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1194,9 +1188,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,7 +1500,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,8 +1777,8 @@
       <c r="G6" t="s">
         <v>304</v>
       </c>
-      <c r="H6" t="s">
-        <v>365</v>
+      <c r="H6" s="5">
+        <v>45199</v>
       </c>
       <c r="I6" t="s">
         <v>317</v>
@@ -1805,8 +1801,8 @@
       <c r="O6" t="s">
         <v>305</v>
       </c>
-      <c r="P6" t="s">
-        <v>366</v>
+      <c r="P6" s="6">
+        <v>45199.569201388891</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
